--- a/biology/Botanique/Indigofera_pulchra/Indigofera_pulchra.xlsx
+++ b/biology/Botanique/Indigofera_pulchra/Indigofera_pulchra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Indigofera pulchra est une espèce de plantes de la famille des Fabaceae et du genre Indigofera, présente en Afrique tropicale[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Indigofera pulchra est une espèce de plantes de la famille des Fabaceae et du genre Indigofera, présente en Afrique tropicale.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une herbe annuelle ramifiée (ou petit arbuste), pouvant atteindre 1,5 m de hauteur[3]. Elle possède de petites fleurs rouge-orangé[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une herbe annuelle ramifiée (ou petit arbuste), pouvant atteindre 1,5 m de hauteur. Elle possède de petites fleurs rouge-orangé.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est présente en Afrique de l'Ouest et de l'Est, également en Angola[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente en Afrique de l'Ouest et de l'Est, également en Angola.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On la rencontre en lisière de forêt, dans les savanes ouvertes et les endroits dégradés, de préférence humides[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On la rencontre en lisière de forêt, dans les savanes ouvertes et les endroits dégradés, de préférence humides.
 </t>
         </is>
       </c>
@@ -604,10 +622,12 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En construction elle est employée en association avec des graminées de toiture[3].
-En médecine traditionnelle on y a recours pour traiter l'anthrax et le craw-craw, une forme d'onchocercose[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En construction elle est employée en association avec des graminées de toiture.
+En médecine traditionnelle on y a recours pour traiter l'anthrax et le craw-craw, une forme d'onchocercose.
 </t>
         </is>
       </c>
@@ -636,9 +656,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (3 juin 2020)[4] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (3 juin 2020) (Attention liste brute contenant possiblement des synonymes) :
 variété Indigofera pulchra var. andongensis Hiern
 variété Indigofera pulchra var. pulchra</t>
         </is>
